--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/18_245-70R19.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/18_245-70R19.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="57">
-  <si>
-    <t>Signal_Value_88</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="56">
   <si>
     <t>Signal_Value_89</t>
   </si>
@@ -547,15 +544,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -659,454 +656,439 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36">
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.2379579508570492</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.3714560867187034</v>
+      </c>
+      <c r="G2">
+        <v>0.1015453099748059</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.03633081297242107</v>
+      </c>
+      <c r="K2">
+        <v>0.02567735535460396</v>
+      </c>
+      <c r="L2">
+        <v>0.02508021407300724</v>
+      </c>
+      <c r="M2">
+        <v>0.07987118860336875</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.01662308662485612</v>
+      </c>
+      <c r="Q2">
+        <v>0.0124632051772486</v>
+      </c>
+      <c r="R2">
+        <v>0.02456599222659324</v>
+      </c>
+      <c r="S2">
+        <v>0.00176047278572517</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0.02220552149544759</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0.04408882405434105</v>
+      </c>
+      <c r="Y2">
+        <v>0.0003739790818285492</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0.1237204684060884</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0.4456220838801876</v>
-      </c>
-      <c r="H2">
-        <v>0.1554202831739369</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0.01685728373759012</v>
-      </c>
-      <c r="K2">
-        <v>0.02704785073528512</v>
-      </c>
-      <c r="L2">
-        <v>0.08083482865667004</v>
-      </c>
-      <c r="M2">
-        <v>0.01669810175818519</v>
-      </c>
-      <c r="N2">
-        <v>0.07700646557899593</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0.007509608052988468</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0.02546205982046139</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0.02382096619961072</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36">
-      <c r="A3" s="1" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.349923463757061</v>
+      </c>
+      <c r="E3">
+        <v>0.00434076149468151</v>
+      </c>
+      <c r="F3">
+        <v>0.3041955339751516</v>
+      </c>
+      <c r="G3">
+        <v>0.06817574033428866</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.04969444468443666</v>
+      </c>
+      <c r="K3">
+        <v>0.02888738686686946</v>
+      </c>
+      <c r="L3">
+        <v>0.07490585039949012</v>
+      </c>
+      <c r="M3">
+        <v>0.008139521276805834</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0.01966365110694449</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.04199568373996429</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.0003692305707527173</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0.0009842430793891082</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0.01427797096759683</v>
+      </c>
+      <c r="X3">
+        <v>0.03444651774656753</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0.2787814649009919</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0.379346472336011</v>
-      </c>
-      <c r="H3">
-        <v>0.05424362000115154</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0.00582739201085851</v>
-      </c>
-      <c r="K3">
-        <v>0.07002686958089174</v>
-      </c>
-      <c r="L3">
-        <v>0.03801578027060478</v>
-      </c>
-      <c r="M3">
-        <v>0.05076961985217018</v>
-      </c>
-      <c r="N3">
-        <v>0.03374242251043722</v>
-      </c>
-      <c r="O3">
-        <v>0.01687755034502457</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0.01748273514782861</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0.005656569561145065</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0.01183638337962496</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0.007449212475846418</v>
-      </c>
-      <c r="Y3">
-        <v>0.01427905087743306</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0.01566485674998008</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36">
-      <c r="A4" s="1" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.1019221770125612</v>
+      </c>
+      <c r="E4">
+        <v>0.0295111675600163</v>
+      </c>
+      <c r="F4">
+        <v>0.1302559303697229</v>
+      </c>
+      <c r="G4">
+        <v>0.1327585283055871</v>
+      </c>
+      <c r="H4">
+        <v>0.1910856769727926</v>
+      </c>
+      <c r="I4">
+        <v>0.02117904253927248</v>
+      </c>
+      <c r="J4">
+        <v>0.008405136295823385</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0.025663685958011</v>
+      </c>
+      <c r="M4">
+        <v>0.2025460065624899</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0.01320610812211459</v>
+      </c>
+      <c r="P4">
+        <v>0.05355135036719368</v>
+      </c>
+      <c r="Q4">
+        <v>0.009303833993132041</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0.04203101984770399</v>
+      </c>
+      <c r="X4">
+        <v>0.004654313982872305</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0.006148940604412963</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0.02777708150629356</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0.001714494602450862</v>
-      </c>
-      <c r="E4">
-        <v>0.2551265672837331</v>
-      </c>
-      <c r="F4">
-        <v>0.2154288682764892</v>
-      </c>
-      <c r="G4">
-        <v>0.2411969333968549</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0.09639365453309245</v>
-      </c>
-      <c r="L4">
-        <v>0.02040602887623578</v>
-      </c>
-      <c r="M4">
-        <v>0.09424572932767201</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0.01123145274165671</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0.01577449076726763</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0.01530881820383216</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0.02230426136995108</v>
-      </c>
-      <c r="Y4">
-        <v>0.006720623105210893</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0.001426484502504124</v>
-      </c>
-      <c r="AB4">
-        <v>0.002721593013048926</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
-      <c r="A5" s="1" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.3201795407324449</v>
+      </c>
+      <c r="E5">
+        <v>0.1679312232837177</v>
+      </c>
+      <c r="F5">
+        <v>0.2732931678323258</v>
+      </c>
+      <c r="G5">
+        <v>0.01249540468086713</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.06454723096544297</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0.06287125088940963</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0.02322158900112769</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.04270338215589137</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0.0009338202092045568</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0.02783904298201583</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0.003984347267552482</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0.06703230525802782</v>
-      </c>
-      <c r="F5">
-        <v>0.1023731790348799</v>
-      </c>
-      <c r="G5">
-        <v>0.2794569729697763</v>
-      </c>
-      <c r="H5">
-        <v>0.2728390212949439</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0.09433318493493846</v>
-      </c>
-      <c r="M5">
-        <v>0.04305210067836614</v>
-      </c>
-      <c r="N5">
-        <v>0.1122594509362769</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0.001142684794423614</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0.004859654624338767</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0.004083201743710534</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0.01237868771192732</v>
-      </c>
-      <c r="Z5">
-        <v>0.00240964062922797</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0.002539006728323168</v>
-      </c>
-      <c r="AC5">
-        <v>0.00124090866083899</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36">
-      <c r="A6" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="B6">
         <v>0</v>
       </c>
@@ -1114,34 +1096,34 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.2850626645025323</v>
       </c>
       <c r="E6">
-        <v>0.337741437284348</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.01726272788531873</v>
+        <v>0.3306256216543372</v>
       </c>
       <c r="G6">
-        <v>0.3608615291586841</v>
+        <v>0.04330614328946895</v>
       </c>
       <c r="H6">
-        <v>0.0272853508974509</v>
+        <v>0.01170774204058315</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.003397632191675581</v>
+        <v>0.03630860723480373</v>
       </c>
       <c r="K6">
-        <v>0.02325093387103951</v>
+        <v>0.0389510972510471</v>
       </c>
       <c r="L6">
-        <v>0.1180361709232703</v>
+        <v>0.0168640287847347</v>
       </c>
       <c r="M6">
-        <v>0.05982802414850919</v>
+        <v>0.08864687842090992</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1150,22 +1132,22 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.001406457561595064</v>
+        <v>0.01796563996247926</v>
       </c>
       <c r="Q6">
-        <v>0.002042495262617118</v>
+        <v>0.0237086692362331</v>
       </c>
       <c r="R6">
-        <v>0.0009723263879604468</v>
+        <v>0.02304580330650536</v>
       </c>
       <c r="S6">
-        <v>0.01472920304425142</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.005523426988508213</v>
+        <v>0.03166998657474341</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1174,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.01591163796458753</v>
+        <v>0.05213711774162162</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1186,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.01175064643018398</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1207,9 +1189,6 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
         <v>0</v>
       </c>
     </row>
@@ -1220,15 +1199,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1332,124 +1311,118 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36">
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.2379579508570492</v>
+      </c>
+      <c r="E2">
+        <v>0.2379579508570492</v>
+      </c>
+      <c r="F2">
+        <v>0.6094140375757525</v>
+      </c>
+      <c r="G2">
+        <v>0.7109593475505585</v>
+      </c>
+      <c r="H2">
+        <v>0.7109593475505585</v>
+      </c>
+      <c r="I2">
+        <v>0.7109593475505585</v>
+      </c>
+      <c r="J2">
+        <v>0.7472901605229795</v>
+      </c>
+      <c r="K2">
+        <v>0.7729675158775834</v>
+      </c>
+      <c r="L2">
+        <v>0.7980477299505906</v>
+      </c>
+      <c r="M2">
+        <v>0.8779189185539593</v>
+      </c>
+      <c r="N2">
+        <v>0.8779189185539593</v>
+      </c>
+      <c r="O2">
+        <v>0.8779189185539593</v>
+      </c>
+      <c r="P2">
+        <v>0.8945420051788154</v>
+      </c>
+      <c r="Q2">
+        <v>0.9070052103560641</v>
+      </c>
+      <c r="R2">
+        <v>0.9315712025826574</v>
+      </c>
+      <c r="S2">
+        <v>0.9333316753683826</v>
+      </c>
+      <c r="T2">
+        <v>0.9333316753683826</v>
+      </c>
+      <c r="U2">
+        <v>0.9555371968638302</v>
+      </c>
+      <c r="V2">
+        <v>0.9555371968638302</v>
+      </c>
+      <c r="W2">
+        <v>0.9555371968638302</v>
+      </c>
+      <c r="X2">
+        <v>0.9996260209181712</v>
+      </c>
+      <c r="Y2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="Z2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AA2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AB2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AC2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AD2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AE2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AF2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AG2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AH2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AI2">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0.1237204684060884</v>
-      </c>
-      <c r="F2">
-        <v>0.1237204684060884</v>
-      </c>
-      <c r="G2">
-        <v>0.5693425522862761</v>
-      </c>
-      <c r="H2">
-        <v>0.7247628354602129</v>
-      </c>
-      <c r="I2">
-        <v>0.7247628354602129</v>
-      </c>
-      <c r="J2">
-        <v>0.741620119197803</v>
-      </c>
-      <c r="K2">
-        <v>0.7686679699330882</v>
-      </c>
-      <c r="L2">
-        <v>0.8495027985897582</v>
-      </c>
-      <c r="M2">
-        <v>0.8662009003479434</v>
-      </c>
-      <c r="N2">
-        <v>0.9432073659269393</v>
-      </c>
-      <c r="O2">
-        <v>0.9432073659269393</v>
-      </c>
-      <c r="P2">
-        <v>0.9432073659269393</v>
-      </c>
-      <c r="Q2">
-        <v>0.9432073659269393</v>
-      </c>
-      <c r="R2">
-        <v>0.9507169739799278</v>
-      </c>
-      <c r="S2">
-        <v>0.9507169739799278</v>
-      </c>
-      <c r="T2">
-        <v>0.9761790338003892</v>
-      </c>
-      <c r="U2">
-        <v>0.9761790338003892</v>
-      </c>
-      <c r="V2">
-        <v>0.9761790338003892</v>
-      </c>
-      <c r="W2">
-        <v>0.9761790338003892</v>
-      </c>
-      <c r="X2">
-        <v>0.9761790338003892</v>
-      </c>
-      <c r="Y2">
-        <v>0.9761790338003892</v>
-      </c>
-      <c r="Z2">
-        <v>0.9761790338003892</v>
-      </c>
-      <c r="AA2">
-        <v>0.9761790338003892</v>
-      </c>
-      <c r="AB2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AC2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AD2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AE2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AF2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AG2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AH2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AI2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AJ2">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36">
-      <c r="A3" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="B3">
         <v>0</v>
       </c>
@@ -1457,76 +1430,76 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.349923463757061</v>
       </c>
       <c r="E3">
-        <v>0.2787814649009919</v>
+        <v>0.3542642252517425</v>
       </c>
       <c r="F3">
-        <v>0.2787814649009919</v>
+        <v>0.6584597592268941</v>
       </c>
       <c r="G3">
-        <v>0.6581279372370029</v>
+        <v>0.7266354995611828</v>
       </c>
       <c r="H3">
-        <v>0.7123715572381545</v>
+        <v>0.7266354995611828</v>
       </c>
       <c r="I3">
-        <v>0.7123715572381545</v>
+        <v>0.7266354995611828</v>
       </c>
       <c r="J3">
-        <v>0.718198949249013</v>
+        <v>0.7763299442456194</v>
       </c>
       <c r="K3">
-        <v>0.7882258188299047</v>
+        <v>0.8052173311124888</v>
       </c>
       <c r="L3">
-        <v>0.8262415991005095</v>
+        <v>0.880123181511979</v>
       </c>
       <c r="M3">
-        <v>0.8770112189526797</v>
+        <v>0.8882627027887848</v>
       </c>
       <c r="N3">
-        <v>0.910753641463117</v>
+        <v>0.8882627027887848</v>
       </c>
       <c r="O3">
-        <v>0.9276311918081416</v>
+        <v>0.9079263538957293</v>
       </c>
       <c r="P3">
-        <v>0.9276311918081416</v>
+        <v>0.9079263538957293</v>
       </c>
       <c r="Q3">
-        <v>0.9276311918081416</v>
+        <v>0.9499220376356936</v>
       </c>
       <c r="R3">
-        <v>0.9451139269559702</v>
+        <v>0.9499220376356936</v>
       </c>
       <c r="S3">
-        <v>0.9451139269559702</v>
+        <v>0.9502912682064463</v>
       </c>
       <c r="T3">
-        <v>0.9507704965171152</v>
+        <v>0.9502912682064463</v>
       </c>
       <c r="U3">
-        <v>0.9507704965171152</v>
+        <v>0.9512755112858354</v>
       </c>
       <c r="V3">
-        <v>0.9626068798967402</v>
+        <v>0.9512755112858354</v>
       </c>
       <c r="W3">
-        <v>0.9626068798967402</v>
+        <v>0.9655534822534323</v>
       </c>
       <c r="X3">
-        <v>0.9700560923725866</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Y3">
-        <v>0.9843351432500197</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Z3">
-        <v>0.9843351432500197</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AA3">
-        <v>0.9843351432500197</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AB3">
         <v>0.9999999999999998</v>
@@ -1552,311 +1525,302 @@
       <c r="AI3">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AJ3">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36">
+    </row>
+    <row r="4" spans="1:35">
       <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.1019221770125612</v>
+      </c>
+      <c r="E4">
+        <v>0.1314333445725775</v>
+      </c>
+      <c r="F4">
+        <v>0.2616892749423004</v>
+      </c>
+      <c r="G4">
+        <v>0.3944478032478875</v>
+      </c>
+      <c r="H4">
+        <v>0.5855334802206802</v>
+      </c>
+      <c r="I4">
+        <v>0.6067125227599527</v>
+      </c>
+      <c r="J4">
+        <v>0.6151176590557761</v>
+      </c>
+      <c r="K4">
+        <v>0.6151176590557761</v>
+      </c>
+      <c r="L4">
+        <v>0.6407813450137871</v>
+      </c>
+      <c r="M4">
+        <v>0.843327351576277</v>
+      </c>
+      <c r="N4">
+        <v>0.843327351576277</v>
+      </c>
+      <c r="O4">
+        <v>0.8565334596983916</v>
+      </c>
+      <c r="P4">
+        <v>0.9100848100655853</v>
+      </c>
+      <c r="Q4">
+        <v>0.9193886440587173</v>
+      </c>
+      <c r="R4">
+        <v>0.9193886440587173</v>
+      </c>
+      <c r="S4">
+        <v>0.9193886440587173</v>
+      </c>
+      <c r="T4">
+        <v>0.9193886440587173</v>
+      </c>
+      <c r="U4">
+        <v>0.9193886440587173</v>
+      </c>
+      <c r="V4">
+        <v>0.9193886440587173</v>
+      </c>
+      <c r="W4">
+        <v>0.9614196639064213</v>
+      </c>
+      <c r="X4">
+        <v>0.9660739778892936</v>
+      </c>
+      <c r="Y4">
+        <v>0.9660739778892936</v>
+      </c>
+      <c r="Z4">
+        <v>0.9722229184937066</v>
+      </c>
+      <c r="AA4">
+        <v>0.9722229184937066</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0.001714494602450862</v>
-      </c>
-      <c r="E4">
-        <v>0.256841061886184</v>
-      </c>
-      <c r="F4">
-        <v>0.4722699301626732</v>
-      </c>
-      <c r="G4">
-        <v>0.713466863559528</v>
-      </c>
-      <c r="H4">
-        <v>0.713466863559528</v>
-      </c>
-      <c r="I4">
-        <v>0.713466863559528</v>
-      </c>
-      <c r="J4">
-        <v>0.713466863559528</v>
-      </c>
-      <c r="K4">
-        <v>0.8098605180926205</v>
-      </c>
-      <c r="L4">
-        <v>0.8302665469688563</v>
-      </c>
-      <c r="M4">
-        <v>0.9245122762965283</v>
-      </c>
-      <c r="N4">
-        <v>0.9245122762965283</v>
-      </c>
-      <c r="O4">
-        <v>0.935743729038185</v>
-      </c>
-      <c r="P4">
-        <v>0.935743729038185</v>
-      </c>
-      <c r="Q4">
-        <v>0.935743729038185</v>
-      </c>
-      <c r="R4">
-        <v>0.9515182198054527</v>
-      </c>
-      <c r="S4">
-        <v>0.9515182198054527</v>
-      </c>
-      <c r="T4">
-        <v>0.9515182198054527</v>
-      </c>
-      <c r="U4">
-        <v>0.9668270380092848</v>
-      </c>
-      <c r="V4">
-        <v>0.9668270380092848</v>
-      </c>
-      <c r="W4">
-        <v>0.9668270380092848</v>
-      </c>
-      <c r="X4">
-        <v>0.9891312993792359</v>
-      </c>
-      <c r="Y4">
-        <v>0.9958519224844469</v>
-      </c>
-      <c r="Z4">
-        <v>0.9958519224844469</v>
-      </c>
-      <c r="AA4">
-        <v>0.997278406986951</v>
-      </c>
-      <c r="AB4">
-        <v>1</v>
-      </c>
-      <c r="AC4">
-        <v>1</v>
-      </c>
-      <c r="AD4">
-        <v>1</v>
-      </c>
-      <c r="AE4">
-        <v>1</v>
-      </c>
-      <c r="AF4">
-        <v>1</v>
-      </c>
-      <c r="AG4">
-        <v>1</v>
-      </c>
-      <c r="AH4">
-        <v>1</v>
-      </c>
-      <c r="AI4">
-        <v>1</v>
-      </c>
-      <c r="AJ4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
-      <c r="A5" s="1" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.3201795407324449</v>
+      </c>
+      <c r="E5">
+        <v>0.4881107640161625</v>
+      </c>
+      <c r="F5">
+        <v>0.7614039318484883</v>
+      </c>
+      <c r="G5">
+        <v>0.7738993365293555</v>
+      </c>
+      <c r="H5">
+        <v>0.7738993365293555</v>
+      </c>
+      <c r="I5">
+        <v>0.7738993365293555</v>
+      </c>
+      <c r="J5">
+        <v>0.8384465674947985</v>
+      </c>
+      <c r="K5">
+        <v>0.8384465674947985</v>
+      </c>
+      <c r="L5">
+        <v>0.9013178183842081</v>
+      </c>
+      <c r="M5">
+        <v>0.9013178183842081</v>
+      </c>
+      <c r="N5">
+        <v>0.9013178183842081</v>
+      </c>
+      <c r="O5">
+        <v>0.9245394073853358</v>
+      </c>
+      <c r="P5">
+        <v>0.9245394073853358</v>
+      </c>
+      <c r="Q5">
+        <v>0.9672427895412272</v>
+      </c>
+      <c r="R5">
+        <v>0.9672427895412272</v>
+      </c>
+      <c r="S5">
+        <v>0.9672427895412272</v>
+      </c>
+      <c r="T5">
+        <v>0.9681766097504317</v>
+      </c>
+      <c r="U5">
+        <v>0.9681766097504317</v>
+      </c>
+      <c r="V5">
+        <v>0.9681766097504317</v>
+      </c>
+      <c r="W5">
+        <v>0.9960156527324475</v>
+      </c>
+      <c r="X5">
+        <v>0.9960156527324475</v>
+      </c>
+      <c r="Y5">
+        <v>0.9960156527324475</v>
+      </c>
+      <c r="Z5">
+        <v>0.9960156527324475</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0.06703230525802782</v>
-      </c>
-      <c r="F5">
-        <v>0.1694054842929077</v>
-      </c>
-      <c r="G5">
-        <v>0.448862457262684</v>
-      </c>
-      <c r="H5">
-        <v>0.7217014785576279</v>
-      </c>
-      <c r="I5">
-        <v>0.7217014785576279</v>
-      </c>
-      <c r="J5">
-        <v>0.7217014785576279</v>
-      </c>
-      <c r="K5">
-        <v>0.7217014785576279</v>
-      </c>
-      <c r="L5">
-        <v>0.8160346634925664</v>
-      </c>
-      <c r="M5">
-        <v>0.8590867641709325</v>
-      </c>
-      <c r="N5">
-        <v>0.9713462151072094</v>
-      </c>
-      <c r="O5">
-        <v>0.9713462151072094</v>
-      </c>
-      <c r="P5">
-        <v>0.9713462151072094</v>
-      </c>
-      <c r="Q5">
-        <v>0.972488899901633</v>
-      </c>
-      <c r="R5">
-        <v>0.972488899901633</v>
-      </c>
-      <c r="S5">
-        <v>0.972488899901633</v>
-      </c>
-      <c r="T5">
-        <v>0.9773485545259718</v>
-      </c>
-      <c r="U5">
-        <v>0.9773485545259718</v>
-      </c>
-      <c r="V5">
-        <v>0.9814317562696824</v>
-      </c>
-      <c r="W5">
-        <v>0.9814317562696824</v>
-      </c>
-      <c r="X5">
-        <v>0.9814317562696824</v>
-      </c>
-      <c r="Y5">
-        <v>0.9938104439816097</v>
-      </c>
-      <c r="Z5">
-        <v>0.9962200846108377</v>
-      </c>
-      <c r="AA5">
-        <v>0.9962200846108377</v>
-      </c>
-      <c r="AB5">
-        <v>0.9987590913391609</v>
-      </c>
-      <c r="AC5">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.2850626645025323</v>
+      </c>
+      <c r="E6">
+        <v>0.2850626645025323</v>
+      </c>
+      <c r="F6">
+        <v>0.6156882861568695</v>
+      </c>
+      <c r="G6">
+        <v>0.6589944294463385</v>
+      </c>
+      <c r="H6">
+        <v>0.6707021714869216</v>
+      </c>
+      <c r="I6">
+        <v>0.6707021714869216</v>
+      </c>
+      <c r="J6">
+        <v>0.7070107787217254</v>
+      </c>
+      <c r="K6">
+        <v>0.7459618759727724</v>
+      </c>
+      <c r="L6">
+        <v>0.7628259047575071</v>
+      </c>
+      <c r="M6">
+        <v>0.851472783178417</v>
+      </c>
+      <c r="N6">
+        <v>0.851472783178417</v>
+      </c>
+      <c r="O6">
+        <v>0.851472783178417</v>
+      </c>
+      <c r="P6">
+        <v>0.8694384231408963</v>
+      </c>
+      <c r="Q6">
+        <v>0.8931470923771294</v>
+      </c>
+      <c r="R6">
+        <v>0.9161928956836348</v>
+      </c>
+      <c r="S6">
+        <v>0.9161928956836348</v>
+      </c>
+      <c r="T6">
+        <v>0.9161928956836348</v>
+      </c>
+      <c r="U6">
+        <v>0.9478628822583782</v>
+      </c>
+      <c r="V6">
+        <v>0.9478628822583782</v>
+      </c>
+      <c r="W6">
+        <v>0.9478628822583782</v>
+      </c>
+      <c r="X6">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AD5">
+      <c r="Y6">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AE5">
+      <c r="Z6">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AF5">
+      <c r="AA6">
         <v>0.9999999999999999</v>
-      </c>
-      <c r="AG5">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AH5">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AI5">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AJ5">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36">
-      <c r="A6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0.337741437284348</v>
-      </c>
-      <c r="F6">
-        <v>0.3550041651696668</v>
-      </c>
-      <c r="G6">
-        <v>0.7158656943283508</v>
-      </c>
-      <c r="H6">
-        <v>0.7431510452258017</v>
-      </c>
-      <c r="I6">
-        <v>0.7431510452258017</v>
-      </c>
-      <c r="J6">
-        <v>0.7465486774174772</v>
-      </c>
-      <c r="K6">
-        <v>0.7697996112885167</v>
-      </c>
-      <c r="L6">
-        <v>0.8878357822117871</v>
-      </c>
-      <c r="M6">
-        <v>0.9476638063602962</v>
-      </c>
-      <c r="N6">
-        <v>0.9476638063602962</v>
-      </c>
-      <c r="O6">
-        <v>0.9476638063602962</v>
-      </c>
-      <c r="P6">
-        <v>0.9490702639218913</v>
-      </c>
-      <c r="Q6">
-        <v>0.9511127591845084</v>
-      </c>
-      <c r="R6">
-        <v>0.9520850855724688</v>
-      </c>
-      <c r="S6">
-        <v>0.9668142886167203</v>
-      </c>
-      <c r="T6">
-        <v>0.9668142886167203</v>
-      </c>
-      <c r="U6">
-        <v>0.9723377156052284</v>
-      </c>
-      <c r="V6">
-        <v>0.9723377156052284</v>
-      </c>
-      <c r="W6">
-        <v>0.9723377156052284</v>
-      </c>
-      <c r="X6">
-        <v>0.9882493535698159</v>
-      </c>
-      <c r="Y6">
-        <v>0.9882493535698159</v>
-      </c>
-      <c r="Z6">
-        <v>0.9882493535698159</v>
-      </c>
-      <c r="AA6">
-        <v>0.9882493535698159</v>
       </c>
       <c r="AB6">
         <v>0.9999999999999999</v>
@@ -1880,9 +1844,6 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AJ6">
         <v>0.9999999999999999</v>
       </c>
     </row>
@@ -1901,63 +1862,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5693425522862761</v>
+        <v>0.6094140375757525</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -1969,36 +1930,36 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
         <v>53</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>54</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6581279372370029</v>
+        <v>0.6584597592268941</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2010,39 +1971,39 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>54</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>55</v>
-      </c>
-      <c r="M3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.5855334802206802</v>
+      </c>
+      <c r="G4">
         <v>6</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.713466863559528</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
       </c>
       <c r="H4">
         <v>18</v>
@@ -2051,39 +2012,39 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>54</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7217014785576279</v>
+        <v>0.7614039318484883</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>18</v>
@@ -2092,36 +2053,36 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>55</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7158656943283508</v>
+        <v>0.6156882861568695</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -2133,16 +2094,16 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
         <v>53</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>54</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>55</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2160,63 +2121,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7247628354602129</v>
+        <v>0.7109593475505585</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -2228,36 +2189,36 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
         <v>53</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>54</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7123715572381545</v>
+        <v>0.7266354995611828</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -2269,39 +2230,39 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>54</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>55</v>
-      </c>
-      <c r="M3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.713466863559528</v>
+        <v>0.843327351576277</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>18</v>
@@ -2310,39 +2271,39 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>54</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7217014785576279</v>
+        <v>0.7614039318484883</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>18</v>
@@ -2351,39 +2312,39 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>55</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7158656943283508</v>
+        <v>0.7070107787217254</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>18</v>
@@ -2392,16 +2353,16 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
         <v>53</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>54</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>55</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2419,66 +2380,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.8779189185539593</v>
+      </c>
+      <c r="G2">
         <v>11</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.8495027985897582</v>
-      </c>
-      <c r="G2">
-        <v>9</v>
       </c>
       <c r="H2">
         <v>18</v>
@@ -2487,36 +2448,36 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
         <v>53</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>54</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8262415991005095</v>
+        <v>0.8052173311124888</v>
       </c>
       <c r="G3">
         <v>9</v>
@@ -2528,39 +2489,39 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>54</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>55</v>
-      </c>
-      <c r="M3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8098605180926205</v>
+        <v>0.843327351576277</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>18</v>
@@ -2569,39 +2530,39 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>54</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8160346634925664</v>
+        <v>0.8384465674947985</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>18</v>
@@ -2610,39 +2571,39 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>55</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.851472783178417</v>
+      </c>
+      <c r="G6">
         <v>11</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.8878357822117871</v>
-      </c>
-      <c r="G6">
-        <v>9</v>
       </c>
       <c r="H6">
         <v>18</v>
@@ -2651,16 +2612,16 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
         <v>53</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>54</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>55</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2678,66 +2639,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9432073659269393</v>
+        <v>0.9070052103560641</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>18</v>
@@ -2746,39 +2707,39 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
         <v>53</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>54</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.9079263538957293</v>
+      </c>
+      <c r="G3">
         <v>13</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.910753641463117</v>
-      </c>
-      <c r="G3">
-        <v>11</v>
       </c>
       <c r="H3">
         <v>18</v>
@@ -2787,39 +2748,39 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>54</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>55</v>
-      </c>
-      <c r="M3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9245122762965283</v>
+        <v>0.9100848100655853</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H4">
         <v>18</v>
@@ -2828,39 +2789,39 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>54</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9713462151072094</v>
+        <v>0.9013178183842081</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>18</v>
@@ -2869,39 +2830,39 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>55</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9476638063602962</v>
+        <v>0.9161928956836348</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>18</v>
@@ -2910,16 +2871,16 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
         <v>53</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>54</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>55</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
